--- a/Albatross_Raw_Data/Spratelloides_gracilis.xlsx
+++ b/Albatross_Raw_Data/Spratelloides_gracilis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\F Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabes\Documents\AlbatrossPhillipinesLWR\Albatross_Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B394C335-3B0F-4DFB-A92B-75089C9AEE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B462BC2-F5C7-4A14-8DE0-C67A988EFBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0321630D-C5A5-4787-916A-1A20D9190C63}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="13">
   <si>
     <t>Species</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>TL_cm</t>
+  </si>
+  <si>
+    <t>5_16_2023</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A19B18-0BA9-4193-8627-81626A565262}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="A2" sqref="A2:J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1593,7 +1596,7 @@
         <v>64.400000000000006</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" ref="G34:H43" si="2">E34/10</f>
+        <f t="shared" ref="G34:H49" si="2">E34/10</f>
         <v>5.84</v>
       </c>
       <c r="H34" s="2">
@@ -1911,6 +1914,890 @@
       </c>
       <c r="J43" s="3">
         <v>138930</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="2">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2">
+        <v>43</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E44" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="F44" s="2">
+        <v>35</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="2"/>
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="2">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>9</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="E45" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="F45" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="2"/>
+        <v>3.55</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7700000000000005</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="2">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="E46" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F46" s="2">
+        <v>40</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="2">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="2">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2">
+        <v>46</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.373</v>
+      </c>
+      <c r="E47" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="F47" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="2"/>
+        <v>3.65</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="2"/>
+        <v>3.94</v>
+      </c>
+      <c r="I47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="2">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2">
+        <v>47</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E48" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="F48" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="2"/>
+        <v>2.88</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="2"/>
+        <v>3.1100000000000003</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="2">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2">
+        <v>48</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E49" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F49" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="2"/>
+        <v>3.4799999999999995</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
+      </c>
+      <c r="I49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2">
+        <v>9</v>
+      </c>
+      <c r="C50" s="2">
+        <v>49</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E50" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="F50" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" ref="G50:H71" si="3">E50/10</f>
+        <v>3.44</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="2">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="2">
+        <v>9</v>
+      </c>
+      <c r="C51" s="2">
+        <v>50</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="E51" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F51" s="2">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="3"/>
+        <v>3.28</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="3"/>
+        <v>3.53</v>
+      </c>
+      <c r="I51" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2">
+        <v>51</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="E52" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="F52" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="3"/>
+        <v>3.37</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="3"/>
+        <v>3.6799999999999997</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="2">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2">
+        <v>9</v>
+      </c>
+      <c r="C53" s="2">
+        <v>52</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.246</v>
+      </c>
+      <c r="E53" s="2">
+        <v>31.9</v>
+      </c>
+      <c r="F53" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="3"/>
+        <v>3.19</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="3"/>
+        <v>3.41</v>
+      </c>
+      <c r="I53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2">
+        <v>53</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="E54" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="F54" s="2">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="3"/>
+        <v>3.54</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="3"/>
+        <v>3.8299999999999996</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="2">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2">
+        <v>54</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="E55" s="2">
+        <v>36.9</v>
+      </c>
+      <c r="F55" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="G55" s="2">
+        <f t="shared" si="3"/>
+        <v>3.69</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="3"/>
+        <v>4.05</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="2">
+        <v>9</v>
+      </c>
+      <c r="C56" s="2">
+        <v>55</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E56" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="F56" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G56" s="2">
+        <f t="shared" si="3"/>
+        <v>3.35</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="3"/>
+        <v>3.6700000000000004</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="2">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2">
+        <v>9</v>
+      </c>
+      <c r="C57" s="2">
+        <v>56</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="E57" s="2">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F57" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="G57" s="2">
+        <f t="shared" si="3"/>
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="3"/>
+        <v>3.65</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2">
+        <v>9</v>
+      </c>
+      <c r="C58" s="2">
+        <v>57</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="E58" s="2">
+        <v>36</v>
+      </c>
+      <c r="F58" s="2">
+        <v>40.1</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="3"/>
+        <v>3.6</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="3"/>
+        <v>4.01</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="2">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2">
+        <v>9</v>
+      </c>
+      <c r="C59" s="2">
+        <v>58</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="E59" s="2">
+        <v>34.1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>37</v>
+      </c>
+      <c r="G59" s="2">
+        <f t="shared" si="3"/>
+        <v>3.41</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="3"/>
+        <v>3.7</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2">
+        <v>9</v>
+      </c>
+      <c r="C60" s="2">
+        <v>59</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E60" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="F60" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G60" s="2">
+        <f t="shared" si="3"/>
+        <v>3.35</v>
+      </c>
+      <c r="H60" s="2">
+        <f t="shared" si="3"/>
+        <v>3.6700000000000004</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="2">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="2">
+        <v>9</v>
+      </c>
+      <c r="C61" s="2">
+        <v>60</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.255</v>
+      </c>
+      <c r="E61" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F61" s="2">
+        <v>36.4</v>
+      </c>
+      <c r="G61" s="2">
+        <f t="shared" si="3"/>
+        <v>3.4299999999999997</v>
+      </c>
+      <c r="H61" s="2">
+        <f t="shared" si="3"/>
+        <v>3.6399999999999997</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="2">
+        <v>9</v>
+      </c>
+      <c r="C62" s="2">
+        <v>61</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="E62" s="2">
+        <v>41.1</v>
+      </c>
+      <c r="F62" s="2">
+        <v>44.2</v>
+      </c>
+      <c r="G62" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="H62" s="2">
+        <f t="shared" si="3"/>
+        <v>4.42</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="2">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="2">
+        <v>9</v>
+      </c>
+      <c r="C63" s="2">
+        <v>62</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="E63" s="2">
+        <v>37</v>
+      </c>
+      <c r="F63" s="2">
+        <v>41.2</v>
+      </c>
+      <c r="G63" s="2">
+        <f t="shared" si="3"/>
+        <v>3.7</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" si="3"/>
+        <v>4.12</v>
+      </c>
+      <c r="I63" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="2">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2">
+        <v>63</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="E64" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="F64" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="G64" s="2">
+        <f t="shared" si="3"/>
+        <v>3.44</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="3"/>
+        <v>3.75</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="2">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="2">
+        <v>9</v>
+      </c>
+      <c r="C65" s="2">
+        <v>64</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E65" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>25</v>
+      </c>
+      <c r="G65" s="2">
+        <f t="shared" si="3"/>
+        <v>2.31</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="2">
+        <v>9</v>
+      </c>
+      <c r="C66" s="2">
+        <v>65</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.151</v>
+      </c>
+      <c r="E66" s="2">
+        <v>27.9</v>
+      </c>
+      <c r="F66" s="2">
+        <v>30</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="3"/>
+        <v>2.79</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="2">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="2">
+        <v>9</v>
+      </c>
+      <c r="C67" s="2">
+        <v>66</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E67" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="F67" s="2">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="G67" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5799999999999996</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="3"/>
+        <v>3.8200000000000003</v>
+      </c>
+      <c r="I67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="2">
+        <v>9</v>
+      </c>
+      <c r="C68" s="2">
+        <v>67</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="E68" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="F68" s="2">
+        <v>41.6</v>
+      </c>
+      <c r="G68" s="2">
+        <f t="shared" si="3"/>
+        <v>3.79</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="3"/>
+        <v>4.16</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="2">
+        <v>120834</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2">
+        <v>9</v>
+      </c>
+      <c r="C69" s="2">
+        <v>68</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="E69" s="2">
+        <v>37</v>
+      </c>
+      <c r="F69" s="2">
+        <v>41</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" si="3"/>
+        <v>3.7</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="3"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I69" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69">
+        <v>120834</v>
       </c>
     </row>
   </sheetData>
